--- a/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_richness_gaussian.xlsx
+++ b/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_richness_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>35.309928680714</v>
+        <v>35.01803606954568</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>19.44763163883396</v>
+        <v>18.27220470233163</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>15.82172467760683</v>
+        <v>16.34857708301666</v>
       </c>
     </row>
     <row r="5">
@@ -406,27 +406,27 @@
         </is>
       </c>
       <c r="B5">
-        <v>12.03296316419823</v>
+        <v>12.22379807659952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BottomDepth</t>
+          <t>SuspendedParticulateMatter</t>
         </is>
       </c>
       <c r="B6">
-        <v>4.564334541197432</v>
+        <v>4.560418877824543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SuspendedParticulateMatter</t>
+          <t>BottomDepth</t>
         </is>
       </c>
       <c r="B7">
-        <v>3.493922122534865</v>
+        <v>3.899998206344125</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>3.468127483460479</v>
+        <v>3.668622449248512</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>3.292518487376912</v>
+        <v>3.533720293118118</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>2.568849204077297</v>
+        <v>2.474624241971222</v>
       </c>
     </row>
   </sheetData>
